--- a/Prueba Excel.xlsx
+++ b/Prueba Excel.xlsx
@@ -342,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +403,31 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>555</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>666</v>
+      </c>
+      <c r="B9">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8787</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
